--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2602.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2602.xlsx
@@ -354,7 +354,7 @@
         <v>1.533912919432366</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.867770059887978</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2602.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2602.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7956306741005971</v>
+        <v>1.412774443626404</v>
       </c>
       <c r="B1">
-        <v>1.533912919432366</v>
+        <v>2.20635199546814</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.958789348602295</v>
       </c>
       <c r="D1">
-        <v>1.867770059887978</v>
+        <v>3.319113492965698</v>
       </c>
       <c r="E1">
-        <v>0.9267548318431522</v>
+        <v>1.186159014701843</v>
       </c>
     </row>
   </sheetData>
